--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41569.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.02</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.08</v>
+        <v>3.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.8</v>
+        <v>4.68</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>216.97</v>
+        <v>21.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.97</v>
+        <v>4.1</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.95</v>
+        <v>2.69</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.5</v>
+        <v>4.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41569.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>1.37</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>13.7</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41569.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.46</v>
+        <v>1.25</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>1.35</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>37.31</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>30.37</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>13.54</v>
-      </c>
       <c r="H4" s="4" t="n">
-        <v>48.35</v>
+        <v>4.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>197.52</v>
+        <v>19.75</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.5</v>
+        <v>3.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.05</v>
+        <v>2.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.9</v>
+        <v>2.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.57</v>
+        <v>4.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41569.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>31.63</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>8.76</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.14</v>
+        <v>10.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.89</v>
+        <v>2.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41569.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.38</v>
+        <v>3.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.58</v>
+        <v>3.06</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>50.89</v>
+        <v>5.09</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>197.54</v>
+        <v>19.75</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.24</v>
+        <v>2.52</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>24.92</v>
+        <v>2.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>46.07</v>
+        <v>4.61</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41569.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>23.93</v>
+        <v>2.39</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>52.02</v>
+        <v>5.2</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>42.73</v>
+        <v>4.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>72.15000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>26.69</v>
+        <v>2.67</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>277.67</v>
+        <v>27.77</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>52.35</v>
+        <v>5.24</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>35.28</v>
+        <v>3.53</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>35.29</v>
+        <v>3.53</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>65.51000000000001</v>
+        <v>6.55</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41569.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W8" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="X8" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.82</v>
-      </c>
       <c r="Y8" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AA8" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
         <v>1.47</v>
       </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>14.69</v>
-      </c>
       <c r="AG8" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41569.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.05</v>
+        <v>0.7</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>88.77</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41569.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20.9</v>
+        <v>2.09</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>71.64</v>
+        <v>7.16</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.55</v>
+        <v>1.45</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41569.34027777778</v>
+        <v>44818.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.88</v>
+        <v>0.09</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.58</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>1.64</v>
+        <v>0.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.06</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.7</v>
+        <v>0.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.1</v>
+        <v>0.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.69</v>
+        <v>0.09</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.37</v>
+        <v>0.03</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.75</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41569.34722222222</v>
+        <v>44818.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.63</v>
+        <v>4.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.45</v>
+        <v>3.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.45</v>
+        <v>5.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>2.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.85</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.51</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.82</v>
+        <v>22.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.22</v>
+        <v>1.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.43</v>
+        <v>2.87</v>
       </c>
       <c r="X3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.66</v>
+        <v>2.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.25</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>1.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.79</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.37</v>
+        <v>4.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41569.35416666666</v>
+        <v>44818.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.04</v>
+        <v>2.6</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M4" s="4" t="n">
         <v>1.35</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.57</v>
-      </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.75</v>
+        <v>16.41</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.75</v>
+        <v>3.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>1.31</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.36</v>
+        <v>4.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41569.36111111111</v>
+        <v>44818.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>2.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.08</v>
+        <v>4.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.68</v>
+        <v>4.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.16</v>
+        <v>6.78</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>2.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.81</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>2.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.88</v>
+        <v>2.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.06</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.46</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>26.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.11</v>
+        <v>4.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>3.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.51</v>
+        <v>3.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>1.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.87</v>
+        <v>2.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.89</v>
+        <v>6.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41569.36805555555</v>
+        <v>44818.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.72</v>
+        <v>8.68</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.26</v>
+        <v>6.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.74</v>
+        <v>18.53</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.06</v>
+        <v>15.61</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.35</v>
+        <v>6.53</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.09</v>
+        <v>30.96</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.08</v>
+        <v>10.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.92</v>
+        <v>4.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.36</v>
+        <v>6.8</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.5</v>
+        <v>7.84</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.58</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.43</v>
+        <v>2.24</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.35</v>
+        <v>6.64</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.91</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.14</v>
+        <v>5.6</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.75</v>
+        <v>95.55</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.76</v>
+        <v>19.13</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.24</v>
+        <v>6.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.52</v>
+        <v>12.82</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.32</v>
+        <v>6.61</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.49</v>
+        <v>14.67</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.1</v>
+        <v>5.51</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.98</v>
+        <v>4.73</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.15</v>
+        <v>5.74</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.57</v>
+        <v>7.9</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.61</v>
+        <v>28.66</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.7</v>
+        <v>3.97</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41569.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>27.77</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41569.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41569.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41569.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41569.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>87.65000000000001</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.2</v>
+        <v>7.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44818.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44818.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.56</v>
+        <v>35.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.13</v>
+        <v>51.3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.33</v>
+        <v>23.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.24</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.68</v>
+        <v>226.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.3</v>
+        <v>43.03</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.71</v>
+        <v>47.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44818.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.6</v>
+        <v>26.02</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.5</v>
+        <v>44.98</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.12</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.12</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.41</v>
+        <v>164.08</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.17</v>
+        <v>31.66</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44818.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.88</v>
+        <v>48.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.07</v>
+        <v>40.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.78</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.1</v>
+        <v>21.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.54</v>
+        <v>25.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.14</v>
+        <v>261.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.94</v>
+        <v>49.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.34</v>
+        <v>33.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.67</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.19</v>
+        <v>61.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44818.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44818.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.59</v>
+        <v>19.594</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.4</v>
+        <v>15.403</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>42.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.59</v>
+        <v>35.587</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.809</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.3</v>
+        <v>51.299</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.34</v>
+        <v>23.345</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.55</v>
+        <v>10.552</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.51</v>
+        <v>15.515</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.09</v>
+        <v>18.088</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.53</v>
+        <v>18.529</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.22</v>
+        <v>5.219</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.14</v>
+        <v>15.143</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.24</v>
+        <v>22.237</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.708</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>226.8</v>
+        <v>226.797</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>43.03</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.38</v>
+        <v>14.384</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.73</v>
+        <v>28.727</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.96</v>
+        <v>14.959</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2</v>
+        <v>2.001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.73</v>
+        <v>26.731</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.54</v>
+        <v>12.538</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.807</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.989</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.94</v>
+        <v>17.937</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.13</v>
+        <v>47.127</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.45</v>
+        <v>17.453</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44818.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.4</v>
+        <v>14.401</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.199</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.87</v>
+        <v>30.866</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.02</v>
+        <v>26.022</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.88</v>
+        <v>10.884</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.98</v>
+        <v>44.984</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.12</v>
+        <v>17.116</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.74</v>
+        <v>7.737</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.35</v>
+        <v>11.355</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.12</v>
+        <v>13.115</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.54</v>
+        <v>13.536</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.77</v>
+        <v>3.767</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.08</v>
+        <v>11.084</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.34</v>
+        <v>16.343</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.32</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.524</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.274</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.08</v>
+        <v>164.082</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.66</v>
+        <v>31.656</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.55</v>
+        <v>10.549</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.18</v>
+        <v>21.177</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.99</v>
+        <v>10.988</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.468</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.13</v>
+        <v>22.134</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.18</v>
+        <v>9.183999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.529</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.15</v>
+        <v>13.146</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.56</v>
+        <v>41.556</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.641</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.79</v>
+        <v>12.793</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44818.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,73 +967,73 @@
         <v>44818.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.6</v>
+        <v>22.599</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.23</v>
+        <v>17.226</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.76</v>
+        <v>48.764</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.68</v>
+        <v>40.685</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.43</v>
+        <v>17.428</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>67.81999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.09</v>
+        <v>27.091</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.19</v>
+        <v>12.191</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.07</v>
+        <v>18.067</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.09</v>
+        <v>20.091</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.02</v>
+        <v>21.022</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.77</v>
+        <v>5.766</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.52</v>
+        <v>17.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.45</v>
+        <v>25.448</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.62</v>
+        <v>14.621</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.45</v>
+        <v>261.449</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>49.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.43</v>
+        <v>16.427</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>33.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.4</v>
+        <v>17.396</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.31</v>
@@ -1042,28 +1042,132 @@
         <v>33.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.4</v>
+        <v>14.401</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.504</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.91</v>
+        <v>14.914</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.67</v>
+        <v>20.669</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.91</v>
+        <v>61.913</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.82</v>
+        <v>9.821</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.22</v>
+        <v>20.225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44818.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_137.xlsx
+++ b/DATA_goal/Junction_Flooding_137.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,73 +967,73 @@
         <v>44818.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.599</v>
+        <v>22.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.226</v>
+        <v>17.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.764</v>
+        <v>48.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.685</v>
+        <v>40.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.428</v>
+        <v>17.43</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>67.81999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.091</v>
+        <v>27.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.191</v>
+        <v>12.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.067</v>
+        <v>18.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.091</v>
+        <v>20.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.022</v>
+        <v>21.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.766</v>
+        <v>5.77</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.519</v>
+        <v>17.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.448</v>
+        <v>25.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.621</v>
+        <v>14.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.449</v>
+        <v>261.45</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>49.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.427</v>
+        <v>16.43</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>33.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.396</v>
+        <v>17.4</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.31</v>
@@ -1042,132 +1042,28 @@
         <v>33.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.401</v>
+        <v>14.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.504</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.914</v>
+        <v>14.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.669</v>
+        <v>20.67</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.913</v>
+        <v>61.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.821</v>
+        <v>9.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.225</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44818.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.68</v>
+        <v>20.22</v>
       </c>
     </row>
   </sheetData>
